--- a/platform_inputs/input_S4.xlsx
+++ b/platform_inputs/input_S4.xlsx
@@ -969,19 +969,19 @@
         <v>483</v>
       </c>
       <c r="M5" s="17" t="n">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="N5" s="17" t="n">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="O5" s="17" t="n">
-        <v>762</v>
+        <v>1010</v>
       </c>
       <c r="P5" s="17" t="n">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="Q5" s="17" t="n">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="R5" s="17" t="n">
         <v>860</v>
@@ -1014,7 +1014,7 @@
         <v>450</v>
       </c>
       <c r="AB5" s="17" t="n">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="AC5" s="17" t="n">
         <v>256</v>
@@ -1141,70 +1141,70 @@
         <v>56</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M7" s="25" t="n">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="N7" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" s="24" t="n">
+        <v>71</v>
+      </c>
+      <c r="P7" s="24" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="24" t="n">
+        <v>334</v>
+      </c>
+      <c r="R7" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="24" t="n">
-        <v>176</v>
-      </c>
-      <c r="P7" s="24" t="n">
+      <c r="S7" s="24" t="n">
+        <v>192</v>
+      </c>
+      <c r="T7" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="24" t="n">
-        <v>57</v>
-      </c>
-      <c r="S7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="24" t="n">
-        <v>694</v>
-      </c>
       <c r="U7" s="24" t="n">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="V7" s="24" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W7" s="24" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="X7" s="24" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="24" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="Z7" s="24" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AA7" s="24" t="n">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="AB7" s="24" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="24" t="n">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="AD7" s="24" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="AE7" s="24" t="n">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AF7" s="24" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="24" t="n"/>
       <c r="AH7" s="24" t="n"/>
@@ -1250,73 +1250,73 @@
         <v>170</v>
       </c>
       <c r="J8" s="18" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K8" s="18" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="L8" s="18" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M8" s="18" t="n">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="N8" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>71</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>334</v>
+      </c>
+      <c r="R8" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="18" t="n">
-        <v>176</v>
-      </c>
-      <c r="P8" s="18" t="n">
+      <c r="S8" s="18" t="n">
+        <v>192</v>
+      </c>
+      <c r="T8" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="n">
-        <v>57</v>
-      </c>
-      <c r="S8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="n">
-        <v>694</v>
-      </c>
       <c r="U8" s="18" t="n">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="V8" s="18" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="X8" s="18" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="18" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="Z8" s="18" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AA8" s="18" t="n">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="AB8" s="18" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="AC8" s="18" t="n">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="AD8" s="18" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="AE8" s="18" t="n">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AF8" s="18" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AG8" s="18" t="n"/>
       <c r="AH8" s="18" t="n"/>
@@ -1362,70 +1362,70 @@
         <v>93</v>
       </c>
       <c r="J9" s="27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M9" s="27" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N9" s="27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O9" s="27" t="n">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="P9" s="27" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="27" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="R9" s="27" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="S9" s="27" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="T9" s="27" t="n">
         <v>0</v>
       </c>
       <c r="U9" s="27" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="V9" s="27" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="W9" s="27" t="n">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="X9" s="27" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="27" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="27" t="n">
+        <v>499</v>
+      </c>
+      <c r="AA9" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="27" t="n">
-        <v>525</v>
-      </c>
-      <c r="AA9" s="27" t="n">
-        <v>56</v>
-      </c>
       <c r="AB9" s="27" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AC9" s="27" t="n">
         <v>0</v>
       </c>
       <c r="AD9" s="27" t="n">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="AE9" s="27" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="27" t="n">
         <v>0</v>
@@ -1474,70 +1474,70 @@
         <v>90</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K10" s="18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="T10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="X10" s="18" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="18" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="18" t="n">
+        <v>499</v>
+      </c>
+      <c r="AA10" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" s="18" t="n">
-        <v>525</v>
-      </c>
-      <c r="AA10" s="18" t="n">
-        <v>56</v>
-      </c>
       <c r="AB10" s="18" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AC10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AD10" s="18" t="n">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="AE10" s="18" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="18" t="n">
         <v>0</v>
@@ -1583,70 +1583,70 @@
       </c>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="27" t="n">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="J11" s="27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="27" t="n">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="L11" s="27" t="n">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="M11" s="27" t="n">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="N11" s="27" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O11" s="27" t="n">
+        <v>290</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q11" s="27" t="n">
+        <v>78</v>
+      </c>
+      <c r="R11" s="27" t="n">
+        <v>152</v>
+      </c>
+      <c r="S11" s="27" t="n">
+        <v>180</v>
+      </c>
+      <c r="T11" s="27" t="n">
+        <v>252</v>
+      </c>
+      <c r="U11" s="27" t="n">
+        <v>173</v>
+      </c>
+      <c r="V11" s="27" t="n">
         <v>161</v>
       </c>
-      <c r="P11" s="27" t="n">
-        <v>332</v>
-      </c>
-      <c r="Q11" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="27" t="n">
-        <v>63</v>
-      </c>
-      <c r="S11" s="27" t="n">
-        <v>196</v>
-      </c>
-      <c r="T11" s="27" t="n">
-        <v>307</v>
-      </c>
-      <c r="U11" s="27" t="n">
-        <v>152</v>
-      </c>
-      <c r="V11" s="27" t="n">
-        <v>207</v>
-      </c>
       <c r="W11" s="27" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="X11" s="27" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Y11" s="27" t="n">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="Z11" s="27" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="AA11" s="27" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="27" t="n">
         <v>0</v>
       </c>
       <c r="AC11" s="27" t="n">
-        <v>456</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="27" t="n">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="AE11" s="27" t="n">
         <v>0</v>
@@ -1698,67 +1698,67 @@
         <v>200</v>
       </c>
       <c r="J12" s="18" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K12" s="18" t="n">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="L12" s="18" t="n">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="M12" s="18" t="n">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="N12" s="18" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O12" s="18" t="n">
+        <v>290</v>
+      </c>
+      <c r="P12" s="18" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q12" s="18" t="n">
+        <v>78</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>152</v>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="T12" s="18" t="n">
+        <v>252</v>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v>173</v>
+      </c>
+      <c r="V12" s="18" t="n">
         <v>161</v>
       </c>
-      <c r="P12" s="18" t="n">
-        <v>332</v>
-      </c>
-      <c r="Q12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="18" t="n">
-        <v>63</v>
-      </c>
-      <c r="S12" s="18" t="n">
-        <v>196</v>
-      </c>
-      <c r="T12" s="18" t="n">
-        <v>307</v>
-      </c>
-      <c r="U12" s="18" t="n">
-        <v>152</v>
-      </c>
-      <c r="V12" s="18" t="n">
-        <v>207</v>
-      </c>
       <c r="W12" s="18" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="X12" s="18" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Y12" s="18" t="n">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="Z12" s="18" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="AA12" s="18" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="18" t="n">
-        <v>456</v>
+        <v>92</v>
       </c>
       <c r="AD12" s="18" t="n">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="AE12" s="18" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>110</v>
       </c>
       <c r="AC13" s="27" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AD13" s="27" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>110</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AD14" s="18" t="n">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>295</v>
       </c>
       <c r="M16" s="17" t="n">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="N16" s="17" t="n">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="O16" s="17" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P16" s="17" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="17" t="n">
         <v>227</v>
@@ -2106,13 +2106,13 @@
         <v>273</v>
       </c>
       <c r="V16" s="17" t="n">
+        <v>546</v>
+      </c>
+      <c r="W16" s="17" t="n">
         <v>450</v>
       </c>
-      <c r="W16" s="17" t="n">
-        <v>634</v>
-      </c>
       <c r="X16" s="17" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Y16" s="17" t="n">
         <v>296</v>
@@ -2127,10 +2127,10 @@
         <v>146</v>
       </c>
       <c r="AC16" s="17" t="n">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="AD16" s="17" t="n">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="AE16" s="17" t="n">
         <v>108</v>
@@ -2254,67 +2254,67 @@
         <v>17</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="M18" s="25" t="n">
+        <v>161</v>
+      </c>
+      <c r="N18" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="24" t="n">
-        <v>4</v>
-      </c>
       <c r="O18" s="24" t="n">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="P18" s="24" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R18" s="24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S18" s="24" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="T18" s="24" t="n">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="U18" s="24" t="n">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="V18" s="24" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W18" s="24" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="X18" s="24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Z18" s="24" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AA18" s="24" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AB18" s="24" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="AC18" s="24" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AD18" s="24" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="AE18" s="24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF18" s="24" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AG18" s="24" t="n"/>
       <c r="AH18" s="24" t="n"/>
@@ -2360,73 +2360,73 @@
         <v>110</v>
       </c>
       <c r="J19" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="L19" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="M19" s="18" t="n">
+        <v>161</v>
+      </c>
+      <c r="N19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="R19" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="S19" s="18" t="n">
+        <v>254</v>
+      </c>
+      <c r="T19" s="18" t="n">
+        <v>79</v>
+      </c>
+      <c r="U19" s="18" t="n">
+        <v>490</v>
+      </c>
+      <c r="V19" s="18" t="n">
+        <v>49</v>
+      </c>
+      <c r="W19" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="K19" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="L19" s="18" t="n">
-        <v>141</v>
-      </c>
-      <c r="M19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" s="18" t="n">
-        <v>443</v>
-      </c>
-      <c r="P19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="18" t="n">
-        <v>619</v>
-      </c>
-      <c r="U19" s="18" t="n">
-        <v>46</v>
-      </c>
-      <c r="V19" s="18" t="n">
-        <v>46</v>
-      </c>
-      <c r="W19" s="18" t="n">
-        <v>37</v>
-      </c>
       <c r="X19" s="18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AG19" s="18" t="n"/>
       <c r="AH19" s="18" t="n"/>
@@ -2475,55 +2475,55 @@
         <v>0</v>
       </c>
       <c r="K20" s="27" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L20" s="27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M20" s="27" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N20" s="27" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O20" s="27" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P20" s="27" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="27" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="R20" s="27" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="S20" s="27" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T20" s="27" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U20" s="27" t="n">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="V20" s="27" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X20" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="27" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="Z20" s="27" t="n">
         <v>0</v>
       </c>
       <c r="AA20" s="27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB20" s="27" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AD20" s="27" t="n">
-        <v>361</v>
+        <v>34</v>
       </c>
       <c r="AE20" s="27" t="n">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="AF20" s="27" t="n">
         <v>0</v>
@@ -2584,58 +2584,58 @@
         <v>170</v>
       </c>
       <c r="J21" s="18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" s="18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M21" s="18" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N21" s="18" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O21" s="18" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P21" s="18" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="18" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="R21" s="18" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="S21" s="18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T21" s="18" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U21" s="18" t="n">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="V21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="18" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="Z21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AA21" s="18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB21" s="18" t="n">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="18" t="n">
-        <v>361</v>
+        <v>34</v>
       </c>
       <c r="AE21" s="18" t="n">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="AF21" s="18" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>240</v>
       </c>
       <c r="AC22" s="27" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="27" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>240</v>
       </c>
       <c r="AC23" s="18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="18" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         <v>300</v>
       </c>
       <c r="L25" s="17" t="n">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="M25" s="17" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N25" s="17" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="O25" s="17" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P25" s="17" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25" s="17" t="n">
         <v>303</v>
@@ -3007,7 +3007,7 @@
         <v>379</v>
       </c>
       <c r="AA25" s="17" t="n">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AB25" s="17" t="n">
         <v>323</v>
@@ -3137,70 +3137,70 @@
         <v>110</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M27" s="25" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N27" s="24" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O27" s="24" t="n">
+        <v>65</v>
+      </c>
+      <c r="P27" s="24" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="24" t="n">
+        <v>181</v>
+      </c>
+      <c r="R27" s="24" t="n">
         <v>0</v>
-      </c>
-      <c r="P27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="24" t="n">
-        <v>337</v>
       </c>
       <c r="S27" s="24" t="n">
         <v>0</v>
       </c>
       <c r="T27" s="24" t="n">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="U27" s="24" t="n">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="V27" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="W27" s="24" t="n">
         <v>35</v>
-      </c>
-      <c r="W27" s="24" t="n">
-        <v>38</v>
       </c>
       <c r="X27" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Y27" s="24" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Z27" s="24" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AA27" s="24" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AB27" s="24" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="AC27" s="24" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AD27" s="24" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AE27" s="24" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF27" s="24" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AG27" s="24" t="n"/>
       <c r="AH27" s="24" t="n"/>
@@ -3246,73 +3246,73 @@
         <v>110</v>
       </c>
       <c r="J28" s="18" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="K28" s="18" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L28" s="18" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M28" s="18" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N28" s="18" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O28" s="18" t="n">
+        <v>65</v>
+      </c>
+      <c r="P28" s="18" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="18" t="n">
+        <v>181</v>
+      </c>
+      <c r="R28" s="18" t="n">
         <v>0</v>
-      </c>
-      <c r="P28" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="18" t="n">
-        <v>337</v>
       </c>
       <c r="S28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="18" t="n">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="U28" s="18" t="n">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="V28" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="W28" s="18" t="n">
         <v>35</v>
-      </c>
-      <c r="W28" s="18" t="n">
-        <v>38</v>
       </c>
       <c r="X28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Y28" s="18" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Z28" s="18" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AA28" s="18" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AB28" s="18" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="AC28" s="18" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AD28" s="18" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AE28" s="18" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AF28" s="18" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AG28" s="18" t="n"/>
       <c r="AH28" s="18" t="n"/>
@@ -3355,34 +3355,34 @@
       </c>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="27" t="n">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="K29" s="27" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L29" s="27" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M29" s="27" t="n">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="N29" s="27" t="n">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="O29" s="27" t="n">
-        <v>723</v>
+        <v>467</v>
       </c>
       <c r="P29" s="27" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" s="27" t="n">
-        <v>4</v>
-      </c>
       <c r="R29" s="27" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="S29" s="27" t="n">
         <v>0</v>
@@ -3394,31 +3394,31 @@
         <v>0</v>
       </c>
       <c r="V29" s="27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="W29" s="27" t="n">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="X29" s="27" t="n">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="Y29" s="27" t="n">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="Z29" s="27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA29" s="27" t="n">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AB29" s="27" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC29" s="27" t="n">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="AD29" s="27" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AE29" s="27" t="n">
         <v>0</v>
@@ -3467,34 +3467,34 @@
       </c>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="18" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J30" s="18" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K30" s="18" t="n">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="L30" s="18" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M30" s="18" t="n">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="N30" s="18" t="n">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="O30" s="18" t="n">
-        <v>723</v>
+        <v>467</v>
       </c>
       <c r="P30" s="18" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" s="18" t="n">
-        <v>4</v>
-      </c>
       <c r="R30" s="18" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="S30" s="18" t="n">
         <v>0</v>
@@ -3506,31 +3506,31 @@
         <v>0</v>
       </c>
       <c r="V30" s="18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="W30" s="18" t="n">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="X30" s="18" t="n">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="Y30" s="18" t="n">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="Z30" s="18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA30" s="18" t="n">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AB30" s="18" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC30" s="18" t="n">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="AD30" s="18" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AE30" s="18" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>105</v>
       </c>
       <c r="M32" s="17" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="N32" s="17" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O32" s="17" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P32" s="17" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="17" t="n">
         <v>115</v>
@@ -3799,25 +3799,25 @@
         <v>5</v>
       </c>
       <c r="K34" s="24" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="L34" s="24" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="M34" s="25" t="n">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="N34" s="24" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O34" s="24" t="n">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="P34" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="24" t="n">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="R34" s="24" t="n">
         <v>0</v>
@@ -3826,43 +3826,43 @@
         <v>0</v>
       </c>
       <c r="T34" s="24" t="n">
+        <v>61</v>
+      </c>
+      <c r="U34" s="24" t="n">
+        <v>265</v>
+      </c>
+      <c r="V34" s="24" t="n">
+        <v>143</v>
+      </c>
+      <c r="W34" s="24" t="n">
+        <v>181</v>
+      </c>
+      <c r="X34" s="24" t="n">
+        <v>177</v>
+      </c>
+      <c r="Y34" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z34" s="24" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA34" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="U34" s="24" t="n">
-        <v>326</v>
-      </c>
-      <c r="V34" s="24" t="n">
-        <v>155</v>
-      </c>
-      <c r="W34" s="24" t="n">
-        <v>165</v>
-      </c>
-      <c r="X34" s="24" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y34" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="24" t="n">
-        <v>107</v>
-      </c>
-      <c r="AA34" s="24" t="n">
-        <v>2</v>
-      </c>
       <c r="AB34" s="24" t="n">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="AC34" s="24" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AD34" s="24" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AE34" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="24" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="24" t="n"/>
       <c r="AH34" s="24" t="n"/>
@@ -3911,25 +3911,25 @@
         <v>10</v>
       </c>
       <c r="K35" s="18" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="L35" s="18" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="M35" s="18" t="n">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="N35" s="18" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O35" s="18" t="n">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="P35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="18" t="n">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="R35" s="18" t="n">
         <v>0</v>
@@ -3938,43 +3938,43 @@
         <v>0</v>
       </c>
       <c r="T35" s="18" t="n">
+        <v>61</v>
+      </c>
+      <c r="U35" s="18" t="n">
+        <v>265</v>
+      </c>
+      <c r="V35" s="18" t="n">
+        <v>143</v>
+      </c>
+      <c r="W35" s="18" t="n">
+        <v>181</v>
+      </c>
+      <c r="X35" s="18" t="n">
+        <v>177</v>
+      </c>
+      <c r="Y35" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z35" s="18" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA35" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="U35" s="18" t="n">
-        <v>326</v>
-      </c>
-      <c r="V35" s="18" t="n">
-        <v>155</v>
-      </c>
-      <c r="W35" s="18" t="n">
-        <v>165</v>
-      </c>
-      <c r="X35" s="18" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y35" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="18" t="n">
-        <v>107</v>
-      </c>
-      <c r="AA35" s="18" t="n">
-        <v>2</v>
-      </c>
       <c r="AB35" s="18" t="n">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AE35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="18" t="n"/>
       <c r="AH35" s="18" t="n"/>
